--- a/trunk/Doc/Project Status/DEV VoiceFlow Projects Status List.xlsx
+++ b/trunk/Doc/Project Status/DEV VoiceFlow Projects Status List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="9180" windowHeight="4500"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Development!$A:$K</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -894,7 +894,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="12.75" customHeight="1">
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75" customHeight="1">
@@ -1294,8 +1294,11 @@
       <c r="G16" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
       <c r="J16" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
